--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/52.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/52.xlsx
@@ -479,13 +479,13 @@
         <v>0.2113210730635152</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.786944443794478</v>
+        <v>-1.825796744775104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04385149985003674</v>
+        <v>0.03880519454714673</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08138218349800988</v>
+        <v>-0.07069301964525691</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.2529630277945951</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.834236635303518</v>
+        <v>-1.852065549890491</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02305241118116945</v>
+        <v>0.01138578145408875</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06232238595817986</v>
+        <v>-0.06335494250175311</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.3143285722777028</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.935411436382483</v>
+        <v>-1.951787531320496</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01976877901381576</v>
+        <v>-0.01101723269938394</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06990128802724267</v>
+        <v>-0.05575715220323469</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.377935763144068</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.975105837593005</v>
+        <v>-2.011157171547276</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03852321684411346</v>
+        <v>-0.03380273349933269</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0646897107166161</v>
+        <v>-0.05493866226015833</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.4310807003546297</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.927902578164319</v>
+        <v>-1.987608271473496</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0198506280081234</v>
+        <v>-0.02653076515892352</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08329461673039022</v>
+        <v>-0.06466137837243267</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.4609622730109018</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.798115257498349</v>
+        <v>-1.869045281161522</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02137135875962031</v>
+        <v>0.01421271979594479</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06988554783602967</v>
+        <v>-0.06503442090418095</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.4627757599188972</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.524468098212421</v>
+        <v>-1.61114933122245</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05648615133671736</v>
+        <v>0.05646254104989785</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06485970478171657</v>
+        <v>-0.06304013867749297</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.4373410421178645</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.114575417805827</v>
+        <v>-1.224521440438241</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04683426608490154</v>
+        <v>0.05927216518141958</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04920451060125992</v>
+        <v>-0.05010170150040132</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.3967644684246399</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.607823896750874</v>
+        <v>-0.7224864676802653</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03975432807729105</v>
+        <v>0.05694576492013716</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02215341798258631</v>
+        <v>-0.01585576747826225</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3587826118088216</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.101206954330792</v>
+        <v>-0.2128914810826824</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05625926430292961</v>
+        <v>-0.03482112387081424</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01626524073012088</v>
+        <v>0.02326490376254504</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3417396398872221</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4859887489660361</v>
+        <v>0.3662090418732963</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2321149766111276</v>
+        <v>-0.22772503728182</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07597880413490507</v>
+        <v>0.08691351497058096</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3626077324985091</v>
       </c>
       <c r="E13" t="n">
-        <v>1.071369608216004</v>
+        <v>0.9337137659626528</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5090242905259511</v>
+        <v>-0.5271695829563054</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1663668521755971</v>
+        <v>0.1800450783397</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4320831841096363</v>
       </c>
       <c r="E14" t="n">
-        <v>1.664499363600136</v>
+        <v>1.511218233529632</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8165356841971027</v>
+        <v>-0.8472865087603935</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2663816011621641</v>
+        <v>0.2977943007659619</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5549361575976657</v>
       </c>
       <c r="E15" t="n">
-        <v>2.355586624979295</v>
+        <v>2.171516106877029</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.152938985849289</v>
+        <v>-1.188038038235173</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3895627635760346</v>
+        <v>0.4168562551393885</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7284298525109828</v>
       </c>
       <c r="E16" t="n">
-        <v>2.904203119613043</v>
+        <v>2.697268399754763</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.501803009875252</v>
+        <v>-1.538248635619409</v>
       </c>
       <c r="G16" t="n">
-        <v>0.520077281076045</v>
+        <v>0.53459288541268</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9384668707473401</v>
       </c>
       <c r="E17" t="n">
-        <v>3.402720159634911</v>
+        <v>3.195152684089869</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.843044059296756</v>
+        <v>-1.879574682073463</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6365011794021717</v>
+        <v>0.6675156521682805</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.165525788864454</v>
       </c>
       <c r="E18" t="n">
-        <v>3.809667063255991</v>
+        <v>3.623007283699185</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.147929202064017</v>
+        <v>-2.207749011759489</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7934686622547615</v>
+        <v>0.8146628297230752</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.389706070252828</v>
       </c>
       <c r="E19" t="n">
-        <v>4.153659498101529</v>
+        <v>3.981660132640517</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.499017315108378</v>
+        <v>-2.569837944442621</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9366304233944229</v>
+        <v>0.9598110029938182</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.597081808742761</v>
       </c>
       <c r="E20" t="n">
-        <v>4.467641684380347</v>
+        <v>4.286446899212698</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.816816497756351</v>
+        <v>-2.905761957272371</v>
       </c>
       <c r="G20" t="n">
-        <v>1.054151413048096</v>
+        <v>1.093467262659945</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.779474759011012</v>
       </c>
       <c r="E21" t="n">
-        <v>4.677000393685431</v>
+        <v>4.528104480886871</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.087106274256544</v>
+        <v>-3.187002184799453</v>
       </c>
       <c r="G21" t="n">
-        <v>1.159942812209837</v>
+        <v>1.21165563642105</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.930086114624608</v>
       </c>
       <c r="E22" t="n">
-        <v>4.844494916421279</v>
+        <v>4.696862940977124</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.298565512079003</v>
+        <v>-3.423271899021414</v>
       </c>
       <c r="G22" t="n">
-        <v>1.24168005115986</v>
+        <v>1.307921071860678</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.047807366328022</v>
       </c>
       <c r="E23" t="n">
-        <v>4.955307436579969</v>
+        <v>4.814909653017311</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.438403731844038</v>
+        <v>-3.563250206488245</v>
       </c>
       <c r="G23" t="n">
-        <v>1.317111769509953</v>
+        <v>1.390376063530015</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.135670748267211</v>
       </c>
       <c r="E24" t="n">
-        <v>5.025220643890782</v>
+        <v>4.884168068373663</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.552676733040908</v>
+        <v>-3.683250276257967</v>
       </c>
       <c r="G24" t="n">
-        <v>1.377525771423716</v>
+        <v>1.45487149702531</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.1962888420441</v>
       </c>
       <c r="E25" t="n">
-        <v>5.015102848979061</v>
+        <v>4.889648802954032</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.654541741504564</v>
+        <v>-3.784029211527925</v>
       </c>
       <c r="G25" t="n">
-        <v>1.416558297593731</v>
+        <v>1.494593443570455</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.234868332954314</v>
       </c>
       <c r="E26" t="n">
-        <v>4.999735700297802</v>
+        <v>4.889746392139553</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.674476693675837</v>
+        <v>-3.797389485829526</v>
       </c>
       <c r="G26" t="n">
-        <v>1.439897853124377</v>
+        <v>1.523977232526896</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.25535855396511</v>
       </c>
       <c r="E27" t="n">
-        <v>4.953036126987932</v>
+        <v>4.861390437669321</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.634380917589384</v>
+        <v>-3.735546274553621</v>
       </c>
       <c r="G27" t="n">
-        <v>1.436587690912282</v>
+        <v>1.517145989540451</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.260401124869517</v>
       </c>
       <c r="E28" t="n">
-        <v>4.801720946799933</v>
+        <v>4.712392213627877</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.567595286272596</v>
+        <v>-3.659894980536107</v>
       </c>
       <c r="G28" t="n">
-        <v>1.387668750641378</v>
+        <v>1.47413591705091</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.251145132453057</v>
       </c>
       <c r="E29" t="n">
-        <v>4.671337072886991</v>
+        <v>4.590232589623731</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.479414013039967</v>
+        <v>-3.567756623232529</v>
       </c>
       <c r="G29" t="n">
-        <v>1.344660252170958</v>
+        <v>1.425772605529825</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.228430220945744</v>
       </c>
       <c r="E30" t="n">
-        <v>4.514462457162558</v>
+        <v>4.453994938598671</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.346085149351071</v>
+        <v>-3.455397629287161</v>
       </c>
       <c r="G30" t="n">
-        <v>1.292659382460547</v>
+        <v>1.371517740437711</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.191072786346163</v>
       </c>
       <c r="E31" t="n">
-        <v>4.356523804512126</v>
+        <v>4.306627398366894</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.223210920665854</v>
+        <v>-3.337743635017738</v>
       </c>
       <c r="G31" t="n">
-        <v>1.232280008967452</v>
+        <v>1.293547129244961</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.139433200532919</v>
       </c>
       <c r="E32" t="n">
-        <v>4.221616199644565</v>
+        <v>4.162440950779265</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.082465278877389</v>
+        <v>-3.203756831336138</v>
       </c>
       <c r="G32" t="n">
-        <v>1.161112308416963</v>
+        <v>1.227894791695509</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.073101192179528</v>
       </c>
       <c r="E33" t="n">
-        <v>4.015603854991367</v>
+        <v>3.961652775589664</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.954693489696246</v>
+        <v>-3.090964195122853</v>
       </c>
       <c r="G33" t="n">
-        <v>1.092795156495149</v>
+        <v>1.154408560979344</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.992668221641285</v>
       </c>
       <c r="E34" t="n">
-        <v>3.76123606891269</v>
+        <v>3.702529877745539</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.878105654301557</v>
+        <v>-3.008428141468769</v>
       </c>
       <c r="G34" t="n">
-        <v>1.034473025993595</v>
+        <v>1.094002429161187</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.902500801789736</v>
       </c>
       <c r="E35" t="n">
-        <v>3.520064859146999</v>
+        <v>3.462076420699161</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.781681242930677</v>
+        <v>-2.926681458404018</v>
       </c>
       <c r="G35" t="n">
-        <v>0.935149271401279</v>
+        <v>1.006099757313029</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.805691824806964</v>
       </c>
       <c r="E36" t="n">
-        <v>3.256101852504874</v>
+        <v>3.212825770783833</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.723241848004586</v>
+        <v>-2.84677873873987</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8640335134817926</v>
+        <v>0.9322452061224792</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.706054343302203</v>
       </c>
       <c r="E37" t="n">
-        <v>3.01228943865364</v>
+        <v>2.957538757538317</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.625853349921909</v>
+        <v>-2.746680566739874</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8155348363162759</v>
+        <v>0.8695205441386469</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.608354506157261</v>
       </c>
       <c r="E38" t="n">
-        <v>2.718772648989973</v>
+        <v>2.683808962248521</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.543314148229583</v>
+        <v>-2.646581607730317</v>
       </c>
       <c r="G38" t="n">
-        <v>0.746913898704051</v>
+        <v>0.8065660753631045</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.51486902387855</v>
       </c>
       <c r="E39" t="n">
-        <v>2.46133552562476</v>
+        <v>2.43283633541449</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.423814616540434</v>
+        <v>-2.543652562340662</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6774587309575369</v>
+        <v>0.7369267473793982</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.428813920043647</v>
       </c>
       <c r="E40" t="n">
-        <v>2.224694342890172</v>
+        <v>2.20006566569918</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.324915060101309</v>
+        <v>-2.452035992375795</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6292386551764904</v>
+        <v>0.675653331025405</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.351035555030174</v>
       </c>
       <c r="E41" t="n">
-        <v>2.024701047356828</v>
+        <v>1.997295800435862</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.232657864354072</v>
+        <v>-2.3514058019128</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5651320044041559</v>
+        <v>0.6098042410857908</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.281288542727229</v>
       </c>
       <c r="E42" t="n">
-        <v>1.763927003454458</v>
+        <v>1.757793050938749</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.13615790006537</v>
+        <v>-2.251354850486443</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4967408735836411</v>
+        <v>0.5372624218424059</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.220101741429924</v>
       </c>
       <c r="E43" t="n">
-        <v>1.54713262782035</v>
+        <v>1.540520173491766</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.053937437245107</v>
+        <v>-2.170686370519783</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4440978040717395</v>
+        <v>0.4825589613007218</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.165225409553385</v>
       </c>
       <c r="E44" t="n">
-        <v>1.310485149009277</v>
+        <v>1.321005892816051</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.96540673176755</v>
+        <v>-2.081975439852836</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4029104457246644</v>
+        <v>0.4249656016523297</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.114193921222226</v>
       </c>
       <c r="E45" t="n">
-        <v>1.101033572576037</v>
+        <v>1.108577846224431</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.888940095845202</v>
+        <v>-1.999483458734149</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3453753247837604</v>
+        <v>0.3633695113784698</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.065004864305819</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8983770366894523</v>
+        <v>0.9135600251335187</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.822540099213132</v>
+        <v>-1.931695964246653</v>
       </c>
       <c r="G46" t="n">
-        <v>0.275207126375297</v>
+        <v>0.2956819671051764</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.015509144779071</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7353747645257958</v>
+        <v>0.7565217114204704</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.779212861870649</v>
+        <v>-1.877079074756641</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2399790044214663</v>
+        <v>0.2529741062869248</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.9653559947571032</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5764192955230032</v>
+        <v>0.5935981402128788</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.710228325841404</v>
+        <v>-1.81416316944957</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1988483107627581</v>
+        <v>0.2034035220998023</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.9150562378440826</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4463313372048652</v>
+        <v>0.4696189501045089</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.662906227969059</v>
+        <v>-1.764652397989057</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1398635182111361</v>
+        <v>0.1572359672529318</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.8646790200843444</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3548524939131119</v>
+        <v>0.3568546462354063</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.595557884816406</v>
+        <v>-1.708203350241851</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1111518354194902</v>
+        <v>0.1173125462602611</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.8153784437222312</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2217093644805292</v>
+        <v>0.2293118768364116</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.549244733200815</v>
+        <v>-1.650061444929685</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07334389612584773</v>
+        <v>0.08134463531941911</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.7680353285480506</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1152757655172981</v>
+        <v>0.1219779389357964</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.500521758310513</v>
+        <v>-1.612449471016645</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04500053380858624</v>
+        <v>0.04803052061709006</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.722930322235963</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01819971023019943</v>
+        <v>0.03802290704386029</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.489903425318219</v>
+        <v>-1.583603209590127</v>
       </c>
       <c r="G53" t="n">
-        <v>0.006018376250453405</v>
+        <v>0.008225151058516969</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.68160821993582</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.07611708953725908</v>
+        <v>-0.05065260819285656</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.471144265430557</v>
+        <v>-1.567147626686489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01584002728704925</v>
+        <v>-0.01125490958670034</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.64423083306301</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1477034791740144</v>
+        <v>-0.1233030347556111</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.456336680546921</v>
+        <v>-1.556417538336583</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04575898274473272</v>
+        <v>-0.04079767447439295</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.6104223905552605</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2230753847974978</v>
+        <v>-0.184475713885841</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.4630152436786</v>
+        <v>-1.560785441398192</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07435576214052361</v>
+        <v>-0.07460917921905302</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.5804381167487604</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2751486593874884</v>
+        <v>-0.2437154975351137</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.457673809790466</v>
+        <v>-1.559336556797035</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1165190123428051</v>
+        <v>-0.0978841999657263</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.5531411184855877</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3641594406970424</v>
+        <v>-0.3226840368507692</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.457072534486129</v>
+        <v>-1.558311870349068</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1341653407117072</v>
+        <v>-0.1209797825325713</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.528407214627833</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4406756582217114</v>
+        <v>-0.3941744113211252</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.482206471815058</v>
+        <v>-1.57220731115191</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1568091797907389</v>
+        <v>-0.1456241999147762</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.5051796967903159</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5004395902383773</v>
+        <v>-0.4722803881583079</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.49858099273395</v>
+        <v>-1.584923024623338</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1939119585180387</v>
+        <v>-0.1728893591339467</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.4820717432161554</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5751992024236746</v>
+        <v>-0.5411531688299408</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.530211693986048</v>
+        <v>-1.610792815891475</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2146008658484149</v>
+        <v>-0.1966759360950427</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.4593148814554029</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6316199178266978</v>
+        <v>-0.5943502930725402</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.552946826174115</v>
+        <v>-1.646161025547102</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2247375489895913</v>
+        <v>-0.2121800244398545</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.4358726938417204</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6859975564102727</v>
+        <v>-0.6444702099329966</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.600228786558866</v>
+        <v>-1.688365200246537</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2600475199377297</v>
+        <v>-0.2435565216038623</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.4118012343437678</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7448595754704332</v>
+        <v>-0.6970928171963212</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.644781397787282</v>
+        <v>-1.726629605085357</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2776954223257529</v>
+        <v>-0.2689737823746259</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.3879430062049289</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8268234731739239</v>
+        <v>-0.7660679091108387</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.689212809543358</v>
+        <v>-1.77148127994682</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3106443645919403</v>
+        <v>-0.2887009640218874</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.3636687301446512</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9133882287689765</v>
+        <v>-0.8274137303444117</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.728214642340507</v>
+        <v>-1.810554730613988</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3268378733118817</v>
+        <v>-0.3132273299699947</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.3399734825493194</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9652922963034274</v>
+        <v>-0.8811475951073745</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.754635340301099</v>
+        <v>-1.844867560448783</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3519214420289295</v>
+        <v>-0.3352163770945653</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.3161262470661174</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.021018869273957</v>
+        <v>-0.9060139491856828</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.78567578438271</v>
+        <v>-1.880879543925021</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3798996319100492</v>
+        <v>-0.3562610127463555</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.29147870032152</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.049578659220397</v>
+        <v>-0.9222436603454142</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.813217183957669</v>
+        <v>-1.930629566291972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3971304192309278</v>
+        <v>-0.3763643849636079</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.2660110451221143</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.046924862981884</v>
+        <v>-0.9200077661836066</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.848837236672703</v>
+        <v>-1.958093838929987</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.426487449862307</v>
+        <v>-0.3931245405672176</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.2382664356055769</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.041986377988803</v>
+        <v>-0.9359683200735955</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.872885100807935</v>
+        <v>-1.985711578432329</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4365281178370841</v>
+        <v>-0.4019894162583831</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.2081787319536174</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.053107610090353</v>
+        <v>-0.9285901054424985</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.918310505639112</v>
+        <v>-2.026812365727733</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4407874135793237</v>
+        <v>-0.4078557855234707</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1755554683635407</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.019967424500928</v>
+        <v>-0.8876656082886807</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.931017562005373</v>
+        <v>-2.057283014887432</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.452781439283635</v>
+        <v>-0.4207344099739529</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1404513942327095</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9623614726995655</v>
+        <v>-0.8395399736549122</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.973617602513815</v>
+        <v>-2.090769484683543</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.457424795691472</v>
+        <v>-0.4163964132756483</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.1042919116584599</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.9053135106767041</v>
+        <v>-0.7786836723680637</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.995984414227498</v>
+        <v>-2.119382004270547</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4631904277327964</v>
+        <v>-0.4242303064423618</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.06770401212576042</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.8126226726615491</v>
+        <v>-0.6920166055301266</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.03659961662398</v>
+        <v>-2.141800758615233</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4524052487136441</v>
+        <v>-0.4189116958314868</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.03124175789531821</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.7247514811958169</v>
+        <v>-0.5901870124966998</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.037094645637629</v>
+        <v>-2.129470679828524</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4346440169488872</v>
+        <v>-0.4082917888200711</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.005213934879791186</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.611215907957277</v>
+        <v>-0.4806998164381453</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.048855716511988</v>
+        <v>-2.126727951509658</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4265724468948572</v>
+        <v>-0.4003508623531091</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.04233988809639859</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.452891620622126</v>
+        <v>-0.3241982432454605</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.036157317250895</v>
+        <v>-2.105629799207743</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4002280888616476</v>
+        <v>-0.3764619741491285</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.07982067499979963</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3171670998306103</v>
+        <v>-0.1799252246061608</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.003169024506675</v>
+        <v>-2.072429013882148</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3820623341827163</v>
+        <v>-0.3556298310787139</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1167757491437933</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1126878498015593</v>
+        <v>0.01666818962517386</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.964448941132239</v>
+        <v>-2.043548124034962</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3584095488469309</v>
+        <v>-0.32627909652382</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1527205971177925</v>
       </c>
       <c r="E82" t="n">
-        <v>0.06377858192570345</v>
+        <v>0.183954941837011</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.92000178918495</v>
+        <v>-2.001484037037323</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3462061785994867</v>
+        <v>-0.2980034170287744</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1868266654836014</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2648374884041681</v>
+        <v>0.3957502327418676</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.866369448655311</v>
+        <v>-1.939191443302287</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.302026609902819</v>
+        <v>-0.2641494137678392</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2177394697771421</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4888392975947116</v>
+        <v>0.59332111284753</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.790979441811932</v>
+        <v>-1.85202777343158</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2767431407573661</v>
+        <v>-0.2284475120584971</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2448543667643538</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6780175077455987</v>
+        <v>0.7699732788311061</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.676239743945597</v>
+        <v>-1.735120651235214</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2564729225132558</v>
+        <v>-0.1977793234990745</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.267637480800761</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8873777910698031</v>
+        <v>0.9892703448680819</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.593133108360042</v>
+        <v>-1.636892413951323</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.222343465906093</v>
+        <v>-0.1642794745404319</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2855287425147229</v>
       </c>
       <c r="E87" t="n">
-        <v>1.106040527400895</v>
+        <v>1.19268083591377</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.482489008247332</v>
+        <v>-1.505845877988313</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1781276947696354</v>
+        <v>-0.1322639256131759</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2987950154413304</v>
       </c>
       <c r="E88" t="n">
-        <v>1.284411522264931</v>
+        <v>1.353100142699372</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.321306302187899</v>
+        <v>-1.356585579763172</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1550321122027904</v>
+        <v>-0.1016917522201527</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.3074064574551924</v>
       </c>
       <c r="E89" t="n">
-        <v>1.422152361550833</v>
+        <v>1.481544825054872</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.138611476797649</v>
+        <v>-1.176303725685876</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1271829918896173</v>
+        <v>-0.07425345089763907</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3139363384486283</v>
       </c>
       <c r="E90" t="n">
-        <v>1.539835475174</v>
+        <v>1.594268204426821</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9553067189978958</v>
+        <v>-0.9886090285568151</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.09845714292587975</v>
+        <v>-0.05337880931094935</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.3218027437765641</v>
       </c>
       <c r="E91" t="n">
-        <v>1.608928618522615</v>
+        <v>1.67773056833379</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7643175998479523</v>
+        <v>-0.789421630813577</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1029572635936784</v>
+        <v>-0.05546595866579406</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.3344469055143106</v>
       </c>
       <c r="E92" t="n">
-        <v>1.683071215212363</v>
+        <v>1.726062399472449</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5696932835373648</v>
+        <v>-0.5756336317011537</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.09509346406366018</v>
+        <v>-0.05092963555820548</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.3559094865535015</v>
       </c>
       <c r="E93" t="n">
-        <v>1.699178152880633</v>
+        <v>1.727257079985516</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4003571584295942</v>
+        <v>-0.4001399437908548</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.09542558209825462</v>
+        <v>-0.05995348718062232</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.3858590060269094</v>
       </c>
       <c r="E94" t="n">
-        <v>1.68795697056488</v>
+        <v>1.711798638195222</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.216972912664215</v>
+        <v>-0.2135147926547174</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.107928015978746</v>
+        <v>-0.0862222922960095</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.4208298938759239</v>
       </c>
       <c r="E95" t="n">
-        <v>1.657668120613691</v>
+        <v>1.677110404799997</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.0718074251831378</v>
+        <v>-0.07700168828343007</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1153652563268917</v>
+        <v>-0.08970244857320532</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.4550810118646687</v>
       </c>
       <c r="E96" t="n">
-        <v>1.606972112754839</v>
+        <v>1.605234395644923</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02505298948434262</v>
+        <v>0.04145899078565969</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1218407709919228</v>
+        <v>-0.1088519652029495</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4812420871743983</v>
       </c>
       <c r="E97" t="n">
-        <v>1.524180280993544</v>
+        <v>1.500974517088208</v>
       </c>
       <c r="F97" t="n">
-        <v>0.08700166004137379</v>
+        <v>0.1054224058179557</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1402646648067473</v>
+        <v>-0.1342534857825</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4937611070342931</v>
       </c>
       <c r="E98" t="n">
-        <v>1.383228442700188</v>
+        <v>1.377310130804098</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1377165561296819</v>
+        <v>0.1514168185614831</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1492208336069482</v>
+        <v>-0.1422857053584974</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4905561838680501</v>
       </c>
       <c r="E99" t="n">
-        <v>1.255736041913075</v>
+        <v>1.24935182035708</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1437513454407488</v>
+        <v>0.1684335392818649</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1626613828837348</v>
+        <v>-0.1587279090996044</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4714261149038857</v>
       </c>
       <c r="E100" t="n">
-        <v>1.125256152833733</v>
+        <v>1.123247704434954</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1568094080710593</v>
+        <v>0.1911308950110208</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1697838194076204</v>
+        <v>-0.1659337686369189</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4452141546794607</v>
       </c>
       <c r="E101" t="n">
-        <v>1.018979955782632</v>
+        <v>1.00673093898067</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1706025376310172</v>
+        <v>0.2006584327522539</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1940142697609232</v>
+        <v>-0.1892213815365626</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4138906054534922</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9004862223119953</v>
+        <v>0.8930914804801247</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1589107235979957</v>
+        <v>0.2050530941389254</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.190406617934902</v>
+        <v>-0.1976077554148527</v>
       </c>
     </row>
   </sheetData>
